--- a/biology/Médecine/Dasha_de_Sébastopol/Dasha_de_Sébastopol.xlsx
+++ b/biology/Médecine/Dasha_de_Sébastopol/Dasha_de_Sébastopol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dasha_de_S%C3%A9bastopol</t>
+          <t>Dasha_de_Sébastopol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daria Lavrentievna Mikhaïlova (en russe : Дарья Лаврентьевна Михайлова), née dans le village de Klioutchichtchi (Ключищи), près de Kazan, en novembre 1836 et morte en 1892, est une infirmière russe.
 Pendant le siège de Sébastopol en Crimée (1854-1855), elle a reçu le surnom de  Dasha de Sébastopol (Даша Севастопольская). Elle est l'homologue russe de Florence Nightingale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dasha_de_S%C3%A9bastopol</t>
+          <t>Dasha_de_Sébastopol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1853, le père de Daria Mikhaïlova est tué au cours de la bataille navale de Sinope.
 Le 2 septembre 1854, le corps d'armée anglo-français arrive près de Yalta. Après la bataille de l'Alma, le 8 septembre, les troupes russes battent en retraite et Darya, âgée de 18 ans, les accompagne.
